--- a/data/trans_camb/P48_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 6,27</t>
+          <t>-6,77; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 8,33</t>
+          <t>-3,73; 8,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,22</t>
+          <t>-1,76; 10,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,41</t>
+          <t>0,98; 14,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,57</t>
+          <t>-2,98; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,29</t>
+          <t>-6,94; 2,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,44</t>
+          <t>-4,91; 4,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,22</t>
+          <t>1,26; 11,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 5,03</t>
+          <t>-2,81; 5,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 3,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 5,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 11,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 17,84</t>
+          <t>-17,12; 18,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 23,96</t>
+          <t>-8,8; 23,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 26,35</t>
+          <t>-4,36; 30,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 19,33</t>
+          <t>2,59; 41,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 7,61</t>
+          <t>-7,48; 22,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 12,61</t>
+          <t>-17,93; 7,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 12,4</t>
+          <t>-12,6; 12,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 8,88</t>
+          <t>3,65; 32,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 14,35</t>
+          <t>-7,31; 16,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 10,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 15,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 31,93</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,2</t>
+          <t>-2,28; 10,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,43</t>
+          <t>0,45; 12,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,79</t>
+          <t>-2,4; 9,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,98</t>
+          <t>-0,17; 13,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,93</t>
+          <t>-5,24; 5,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 6,07</t>
+          <t>-3,25; 6,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,57</t>
+          <t>-4,26; 5,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,8</t>
+          <t>0,68; 11,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,07</t>
+          <t>-2,9; 5,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 8,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 6,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 11,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 40,9</t>
+          <t>-8,65; 47,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 56,67</t>
+          <t>1,18; 56,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 40,48</t>
+          <t>-8,39; 40,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 30,24</t>
+          <t>-0,74; 59,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 34,22</t>
+          <t>-20,73; 29,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 30,33</t>
+          <t>-12,64; 32,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 25,04</t>
+          <t>-16,97; 26,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 35,74</t>
+          <t>3,54; 57,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 27,91</t>
+          <t>-11,44; 26,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 37,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 27,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 51,25</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 13,86</t>
+          <t>-9,11; 15,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 5,0</t>
+          <t>-14,71; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 6,76</t>
+          <t>-10,96; 7,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 7,11</t>
+          <t>-9,33; 11,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 9,46</t>
+          <t>-8,59; 8,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 11,82</t>
+          <t>-5,99; 9,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 6,64</t>
+          <t>-4,11; 12,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 4,19</t>
+          <t>-2,59; 17,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,05</t>
+          <t>-6,43; 8,75</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,51; 5,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 7,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 11,98</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,35%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,25%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 93,58</t>
+          <t>-37,31; 94,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 34,93</t>
+          <t>-57,64; 26,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 47,93</t>
+          <t>-44,96; 52,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 50,37</t>
+          <t>-39,52; 70,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 69,26</t>
+          <t>-41,89; 68,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 83,41</t>
+          <t>-30,56; 71,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 41,91</t>
+          <t>-19,54; 99,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 28,5</t>
+          <t>-12,32; 127,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 47,47</t>
+          <t>-29,62; 57,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-34,61; 31,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-26,75; 44,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 73,8</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,19</t>
+          <t>-2,02; 6,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,86</t>
+          <t>-1,02; 7,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,64</t>
+          <t>-0,23; 7,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,94</t>
+          <t>2,87; 11,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,25</t>
+          <t>-2,48; 4,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,7</t>
+          <t>-3,4; 3,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,73</t>
+          <t>-2,68; 3,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,81</t>
+          <t>2,53; 10,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,44</t>
+          <t>-1,42; 4,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 4,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 4,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 9,77</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 21,86</t>
+          <t>-6,24; 24,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 24,01</t>
+          <t>-3,42; 25,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 23,67</t>
+          <t>-0,79; 27,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 14,34</t>
+          <t>9,11; 39,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 11,87</t>
+          <t>-8,12; 17,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 13,56</t>
+          <t>-11,02; 12,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 13,05</t>
+          <t>-8,88; 14,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 13,36</t>
+          <t>8,38; 36,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 15,77</t>
+          <t>-4,62; 15,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 14,21</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 15,99</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 33,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
